--- a/data/springcloud-course/hr-payroll_structure.xlsx
+++ b/data/springcloud-course/hr-payroll_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="106">
   <si>
     <t>Class Name</t>
   </si>
@@ -246,18 +246,18 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>dailyIncome</t>
   </si>
   <si>
-    <t>days</t>
-  </si>
-  <si>
     <t>service</t>
   </si>
   <si>
@@ -330,19 +330,16 @@
     <t>4</t>
   </si>
   <si>
-    <t>0</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>11</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2268,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2293,10 +2290,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
@@ -2304,7 +2301,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>101</v>
@@ -2315,7 +2312,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>101</v>
@@ -2326,10 +2323,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
@@ -2337,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>96</v>
@@ -2345,10 +2342,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>96</v>
@@ -2356,68 +2353,68 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -2425,7 +2422,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>96</v>
@@ -2436,7 +2433,7 @@
         <v>37</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>96</v>
@@ -2447,7 +2444,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>96</v>
@@ -2458,7 +2455,7 @@
         <v>37</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>96</v>
@@ -2469,7 +2466,7 @@
         <v>37</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>96</v>
@@ -2480,10 +2477,10 @@
         <v>37</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -2491,7 +2488,7 @@
         <v>37</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>96</v>
@@ -2502,128 +2499,128 @@
         <v>37</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>96</v>
@@ -2631,10 +2628,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>96</v>
@@ -2645,7 +2642,7 @@
         <v>18</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>96</v>
@@ -2656,7 +2653,7 @@
         <v>18</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>96</v>
@@ -2667,7 +2664,7 @@
         <v>18</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>103</v>
@@ -2678,10 +2675,10 @@
         <v>18</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -2689,10 +2686,10 @@
         <v>18</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -2700,7 +2697,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>96</v>
@@ -2708,112 +2705,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B43" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s" s="0">
         <v>105</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B45" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C45" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="C49" t="s" s="0">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3049,7 +2947,7 @@
         <v>75</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -3063,7 +2961,7 @@
         <v>75</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -3077,7 +2975,7 @@
         <v>75</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -3105,7 +3003,7 @@
         <v>75</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -3113,13 +3011,13 @@
         <v>37</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>75</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -3141,13 +3039,13 @@
         <v>47</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>75</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -3155,13 +3053,13 @@
         <v>47</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>75</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -3169,7 +3067,7 @@
         <v>47</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>75</v>
@@ -3183,7 +3081,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>75</v>
@@ -3203,7 +3101,7 @@
         <v>75</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -3211,13 +3109,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>75</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
